--- a/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="114">
   <si>
     <t xml:space="preserve">POS </t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">STANDARD 20</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH shelf share in SSD </t>
+    <t xml:space="preserve">CCH shelf share in SSD</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Shelf: Shelf share *K</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">STANDARD 27</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of CCH displays points of interaction NEW</t>
+    <t xml:space="preserve">Number of CCH displays points of interaction</t>
   </si>
   <si>
     <t xml:space="preserve">(SSD Display 1st + Juice Display 1st + SSD Display 2d + NCB Display) *K</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">STANDARD 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of CCH cooler doors and/or equivalent in Customer coolers</t>
+    <t xml:space="preserve">Number of CCH cooler doors and-or equivalent in Customer coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Doors *K</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">STANDARD 18</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights and Chilled )</t>
+    <t xml:space="preserve">CCH coolers quality</t>
   </si>
   <si>
     <t xml:space="preserve">( Cooler: Prime Position + Cooler: Max 15 + Cooler: Merch Priorty STD + Cooler: w/o other products)*K</t>
@@ -161,21 +161,12 @@
     <t xml:space="preserve">STANDARD 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of SSD core assortment available in-store                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">SSD Availability *k</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of NCB core assortment available in-store </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH shelf share in SSD</t>
-  </si>
-  <si>
     <t xml:space="preserve">STANDARD 21</t>
   </si>
   <si>
@@ -215,7 +206,7 @@
     <t xml:space="preserve">STANDARD 16</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
+    <t xml:space="preserve">CCH products present in Customers menu</t>
   </si>
   <si>
     <t xml:space="preserve">Menu Activation *K </t>
@@ -308,7 +299,7 @@
     <t xml:space="preserve">Value Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Value</t>
+    <t xml:space="preserve">Values</t>
   </si>
   <si>
     <t xml:space="preserve">POS KPI</t>
@@ -437,7 +428,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -470,6 +461,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -580,7 +578,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -613,27 +611,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -718,15 +712,15 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="115.473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="117.51012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1048,10 +1042,10 @@
         <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,10 +1053,10 @@
         <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>38</v>
@@ -1076,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
@@ -1087,7 +1081,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>15</v>
@@ -1101,7 +1095,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>18</v>
@@ -1115,7 +1109,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>21</v>
@@ -1129,7 +1123,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>24</v>
@@ -1149,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,18 +1165,18 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>37</v>
@@ -1190,13 +1184,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>38</v>
@@ -1204,13 +1198,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1218,10 +1212,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>15</v>
@@ -1232,10 +1226,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>18</v>
@@ -1246,10 +1240,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>21</v>
@@ -1260,10 +1254,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>24</v>
@@ -1274,7 +1268,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>26</v>
@@ -1283,12 +1277,12 @@
         <v>27</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>29</v>
@@ -1302,21 +1296,21 @@
     </row>
     <row r="46" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>37</v>
@@ -1324,13 +1318,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>38</v>
@@ -1338,13 +1332,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>13</v>
@@ -1352,10 +1346,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
@@ -1366,10 +1360,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>18</v>
@@ -1380,10 +1374,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>21</v>
@@ -1394,10 +1388,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>24</v>
@@ -1408,7 +1402,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>26</v>
@@ -1417,12 +1411,12 @@
         <v>27</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>29</v>
@@ -1436,21 +1430,21 @@
     </row>
     <row r="57" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>7</v>
@@ -1458,113 +1452,113 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>29</v>
@@ -1578,7 +1572,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>32</v>
@@ -1587,15 +1581,15 @@
         <v>33</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,13 +1597,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>7</v>
@@ -1617,27 +1611,27 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>13</v>
@@ -1645,10 +1639,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>15</v>
@@ -1659,10 +1653,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>24</v>
@@ -1673,21 +1667,21 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>29</v>
@@ -1701,7 +1695,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>32</v>
@@ -1710,26 +1704,26 @@
         <v>33</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>7</v>
@@ -1737,35 +1731,35 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>29</v>
@@ -1779,7 +1773,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>32</v>
@@ -1788,26 +1782,26 @@
         <v>33</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>7</v>
@@ -1815,13 +1809,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>10</v>
@@ -1829,7 +1823,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>26</v>
@@ -1838,12 +1832,12 @@
         <v>27</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>29</v>
@@ -1852,12 +1846,12 @@
         <v>30</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>32</v>
@@ -1866,23 +1860,23 @@
         <v>33</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>7</v>
@@ -1890,13 +1884,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>10</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>26</v>
@@ -1913,12 +1907,12 @@
         <v>27</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>29</v>
@@ -1927,12 +1921,12 @@
         <v>30</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>32</v>
@@ -1941,12 +1935,12 @@
         <v>33</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1971,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
@@ -1986,28 +1980,28 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2015,50 +2009,50 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>113</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2072,10 +2066,10 @@
         <v>1.111111</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2089,16 +2083,12 @@
         <v>1.111111</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2115,37 +2105,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2153,50 +2143,50 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.111111</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2210,10 +2200,10 @@
         <v>1.111111</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2227,16 +2217,12 @@
         <v>1.111111</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2253,37 +2239,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2291,33 +2277,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2331,10 +2317,10 @@
         <v>1.176471</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>115</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2348,10 +2334,10 @@
         <v>1.176471</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2365,16 +2351,12 @@
         <v>1.176471</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2391,37 +2373,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2429,33 +2411,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2469,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2503,16 +2485,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2529,37 +2507,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2567,33 +2545,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2607,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>116</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2624,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2641,16 +2619,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2670,204 +2644,204 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2889,204 +2863,204 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>1.123596</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3108,34 +3082,34 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3143,33 +3117,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3177,21 +3151,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -3200,15 +3174,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3217,15 +3191,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -3234,15 +3208,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
@@ -3251,10 +3225,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3268,10 +3242,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3285,10 +3259,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3310,34 +3284,34 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3345,33 +3319,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3379,21 +3353,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -3402,15 +3376,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3419,15 +3393,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -3436,15 +3410,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
@@ -3453,10 +3427,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3470,10 +3444,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3487,10 +3461,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3518,28 +3492,28 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3547,33 +3521,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3581,21 +3555,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.1976048</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -3604,15 +3578,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3621,15 +3595,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -3638,15 +3612,15 @@
         <v>1.1976048</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
@@ -3655,10 +3629,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3672,10 +3646,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3689,10 +3663,10 @@
         <v>1.1976048</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3711,37 +3685,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3749,74 +3723,69 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.200048</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.200048</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.200048</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1.200048</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3833,37 +3802,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3871,67 +3840,67 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.38889</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.38889</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.38889</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1.38889</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3945,10 +3914,10 @@
         <v>1.38889</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3962,15 +3931,12 @@
         <v>1.38889</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3987,37 +3953,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4025,33 +3991,33 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4059,21 +4025,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -4082,15 +4048,15 @@
         <v>1.176471</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -4099,27 +4065,27 @@
         <v>1.176471</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>1.176471</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4133,10 +4099,10 @@
         <v>1.176471</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4150,13 +4116,12 @@
         <v>1.176471</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190723_1938\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64F33C2-6D8D-4D5F-9D55-B90F3A96D4BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="992" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conv Big CAP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Conv Other" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hyper" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Super CAP" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Super REG" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="HoReCa" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="QSR-FastFood-Cinema" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Petrol" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Canteen EDU" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Canteen OTH" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="FT" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="FT NS CAP" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="FT NS REG" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Conv Big CAP" sheetId="1" r:id="rId1"/>
+    <sheet name="Conv Other" sheetId="2" r:id="rId2"/>
+    <sheet name="Hyper" sheetId="3" r:id="rId3"/>
+    <sheet name="Super CAP" sheetId="4" r:id="rId4"/>
+    <sheet name="Super REG" sheetId="5" r:id="rId5"/>
+    <sheet name="HoReCa" sheetId="6" r:id="rId6"/>
+    <sheet name="FastFood" sheetId="14" r:id="rId7"/>
+    <sheet name="QSR-Cinema" sheetId="7" r:id="rId8"/>
+    <sheet name="Petrol" sheetId="8" r:id="rId9"/>
+    <sheet name="Canteen EDU" sheetId="9" r:id="rId10"/>
+    <sheet name="Canteen OTH" sheetId="10" r:id="rId11"/>
+    <sheet name="FT" sheetId="11" r:id="rId12"/>
+    <sheet name="FT NS CAP" sheetId="12" r:id="rId13"/>
+    <sheet name="FT NS REG" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,149 +38,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">KPI Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="64">
+  <si>
+    <t>KPI Code</t>
+  </si>
+  <si>
+    <t>KPI Name</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Values</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1     </t>
   </si>
   <si>
-    <t xml:space="preserve">Number of SSD core assortment available in-store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
+    <t>Number of SSD core assortment available in-store</t>
+  </si>
+  <si>
+    <t>POS KPI</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2   </t>
   </si>
   <si>
-    <t xml:space="preserve">Number of NCB core assortment available in-store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability,
+    <t>Number of NCB core assortment available in-store</t>
+  </si>
+  <si>
+    <t>Water Availability,
 Energy Availability,
 Tea Availability,
 Juice (JNSD) Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH shelf share in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+    <t>STANDARD 20</t>
+  </si>
+  <si>
+    <t>CCH shelf share in SSD</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 21 </t>
   </si>
   <si>
-    <t xml:space="preserve">CCH shelf share in Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: Shelf share</t>
+    <t>CCH shelf share in Water</t>
+  </si>
+  <si>
+    <t>Water Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 23 </t>
   </si>
   <si>
-    <t xml:space="preserve">CCH shelf share in Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+    <t>CCH shelf share in Juice</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 24  </t>
   </si>
   <si>
-    <t xml:space="preserve">CCH shelf share in Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+    <t>CCH shelf share in Tea</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 25  </t>
   </si>
   <si>
-    <t xml:space="preserve">CCH shelf share in Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH displays points of interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st,
+    <t>CCH shelf share in Energy</t>
+  </si>
+  <si>
+    <t>Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>STANDARD 27</t>
+  </si>
+  <si>
+    <t>Number of CCH displays points of interaction</t>
+  </si>
+  <si>
+    <t>SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d,
 NCB-Mixability Display</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH cooler doors and-or equivalent in Customer coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position,
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Number of CCH cooler doors and-or equivalent in Customer coolers</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>CCH coolers quality</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position,
 Cooler: Max 15,
 Cooler: Merch Priorty STD,
 Cooler: w/o other products</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 1st,
+    <t>SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st,
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>STANDARD 21</t>
+  </si>
+  <si>
+    <t>STANDARD 23</t>
+  </si>
+  <si>
+    <t>STANDARD 24</t>
+  </si>
+  <si>
+    <t>STANDARD 25</t>
+  </si>
+  <si>
+    <t>SSD Display 1st,
 SSD Display 2d,
 Juice Display 2d,
 NCB Display,
@@ -185,7 +191,7 @@
 SSD Display 4th</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 1st,
+    <t>SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d,
 NCB Display,
@@ -194,106 +200,93 @@
 Mixability Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Availability,
+    <t>Juice Availability,
 Energy Availability,
 Water Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customers menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in NARTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation,
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>CCH products present in Customers menu</t>
+  </si>
+  <si>
+    <t>Menu Activation</t>
+  </si>
+  <si>
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in NARTD</t>
+  </si>
+  <si>
+    <t>Impulse Activation,
 Destination Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Availability,
+    <t>Water Availability,
 Energy Availability,
 Tea Availability,
 Juice Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position,
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position,
 Cooler: w/o other products,
 Cooler: Max 15</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Availability,
+    <t>Juice Availability,
 Energy Availability,
 Water Availability,
 Tea Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone Activation Impulse/Cash,
+    <t>Zone Activation Impulse/Cash,
 Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Availability,
+    <t>Juice Availability,
 Water Availability,
 Tea Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation bufet line,
+    <t>Activation bufet line,
 Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display,
+    <t>SSD Display,
 Juice Display</t>
   </si>
   <si>
-    <t xml:space="preserve">JNSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display</t>
+    <t>JNSD Displays</t>
+  </si>
+  <si>
+    <t>Juice Display</t>
+  </si>
+  <si>
+    <t>Menu activation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -303,14 +296,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,90 +316,75 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -465,33 +443,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,14 +794,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1.123596</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -525,14 +811,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1.123596</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -542,14 +828,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1.123596</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -559,14 +845,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1.123596</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -576,14 +862,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1.123596</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -593,14 +879,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1.123596</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -610,14 +896,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1.123596</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -627,14 +913,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1.123596</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -644,14 +930,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1.123596</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -661,14 +947,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1.123596</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -679,10 +965,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -690,27 +975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,14 +1009,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1.111111</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -744,31 +1026,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1.111111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1.111111</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -778,14 +1060,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1.111111</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -795,14 +1077,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1.111111</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -813,10 +1095,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -824,27 +1105,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -861,15 +1139,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C2" s="2">
+        <v>1.111111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -878,49 +1156,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C3" s="2">
+        <v>1.111111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1.176471</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.111111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C5" s="2">
+        <v>1.111111</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -929,28 +1207,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C6" s="2">
+        <v>1.111111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -958,27 +1235,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,15 +1269,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1012,15 +1286,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1029,32 +1303,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
+      <c r="C4" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1063,15 +1337,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
+      <c r="C6" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1081,10 +1355,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1092,27 +1365,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1129,14 +1399,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1146,14 +1416,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1163,14 +1433,144 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:AMK6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1180,14 +1580,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1197,14 +1597,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1215,10 +1615,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1226,27 +1625,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,14 +1659,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1.123596</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1280,14 +1676,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1.123596</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1297,14 +1693,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1.123596</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1314,14 +1710,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1.123596</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1331,14 +1727,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1.123596</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1348,14 +1744,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1.123596</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1365,14 +1761,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1.123596</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1382,14 +1778,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1.123596</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1399,14 +1795,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1.123596</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1416,14 +1812,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1.123596</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1434,10 +1830,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1445,27 +1840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1482,15 +1874,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C2" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1499,15 +1891,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C3" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1516,15 +1908,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C4" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1533,15 +1925,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C5" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1550,15 +1942,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C6" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1567,15 +1959,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C7" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1584,15 +1976,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C8" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1601,15 +1993,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C9" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -1618,15 +2010,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C10" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1636,10 +2028,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1647,27 +2038,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1684,15 +2072,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C2" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1701,15 +2089,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C3" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1718,15 +2106,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C4" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1735,15 +2123,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C5" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1752,15 +2140,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C6" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1769,15 +2157,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C7" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1786,15 +2174,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C8" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1803,15 +2191,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C9" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -1820,15 +2208,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C10" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1838,10 +2226,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1849,27 +2236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1886,15 +2270,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C2" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1903,15 +2287,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C3" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1920,15 +2304,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C4" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1937,15 +2321,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C5" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1954,15 +2338,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C6" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1971,15 +2355,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C7" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1988,15 +2372,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C8" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -2005,15 +2389,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C9" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2022,15 +2406,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1.1976048</v>
+      <c r="C10" s="2">
+        <v>1.1976047999999999</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -2040,10 +2424,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2051,27 +2434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2088,14 +2468,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1.200048</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2105,14 +2485,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1.200048</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2122,14 +2502,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1.200048</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2139,14 +2519,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1.200048</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2157,10 +2537,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2168,27 +2547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECCAC62-317B-4118-BAAF-F7AB0A6489AD}">
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2205,14 +2581,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1.38889</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2222,14 +2598,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1.38889</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2239,48 +2615,48 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1.38889</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1.38889</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1.38889</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2290,14 +2666,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1.38889</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2308,10 +2684,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2319,27 +2694,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2356,15 +2728,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C2" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -2373,130 +2745,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.176471</v>
+      <c r="C3" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1.176471</v>
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1.176471</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1.176471</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1.176471</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.38889</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2504,27 +2841,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col min="1" max="1" width="13.453125" style="1"/>
+    <col min="2" max="2" width="69.54296875" style="1"/>
+    <col min="3" max="3" width="10.08984375" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2"/>
+    <col min="5" max="5" width="38.26953125" style="1"/>
+    <col min="6" max="1025" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2541,15 +2875,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.111111</v>
+      <c r="C2" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -2558,79 +2892,129 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1.111111</v>
+      <c r="C3" s="2">
+        <v>1.176471</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C8" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C9" s="2">
+        <v>1.176471</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Benchmark 2019.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190723_1938\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64F33C2-6D8D-4D5F-9D55-B90F3A96D4BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="992" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Conv Big CAP" sheetId="1" r:id="rId1"/>
-    <sheet name="Conv Other" sheetId="2" r:id="rId2"/>
-    <sheet name="Hyper" sheetId="3" r:id="rId3"/>
-    <sheet name="Super CAP" sheetId="4" r:id="rId4"/>
-    <sheet name="Super REG" sheetId="5" r:id="rId5"/>
-    <sheet name="HoReCa" sheetId="6" r:id="rId6"/>
-    <sheet name="FastFood" sheetId="14" r:id="rId7"/>
-    <sheet name="QSR-Cinema" sheetId="7" r:id="rId8"/>
-    <sheet name="Petrol" sheetId="8" r:id="rId9"/>
-    <sheet name="Canteen EDU" sheetId="9" r:id="rId10"/>
-    <sheet name="Canteen OTH" sheetId="10" r:id="rId11"/>
-    <sheet name="FT" sheetId="11" r:id="rId12"/>
-    <sheet name="FT NS CAP" sheetId="12" r:id="rId13"/>
-    <sheet name="FT NS REG" sheetId="13" r:id="rId14"/>
+    <sheet name="Conv Big CAP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Conv Other" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hyper" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Super CAP" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Super REG" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="HoReCa" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="FastFood" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="QSR-Cinema" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Petrol" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Canteen EDU" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Canteen OTH" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="FT" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="FT NS CAP" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="FT NS REG" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -38,149 +33,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="64">
-  <si>
-    <t>KPI Code</t>
-  </si>
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Value Type</t>
-  </si>
-  <si>
-    <t>Values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="62">
+  <si>
+    <t xml:space="preserve">KPI Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1     </t>
   </si>
   <si>
-    <t>Number of SSD core assortment available in-store</t>
-  </si>
-  <si>
-    <t>POS KPI</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
+    <t xml:space="preserve">Number of SSD core assortment available in-store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2   </t>
   </si>
   <si>
-    <t>Number of NCB core assortment available in-store</t>
-  </si>
-  <si>
-    <t>Water Availability,
+    <t xml:space="preserve">Number of NCB core assortment available in-store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability,
 Energy Availability,
 Tea Availability,
 Juice (JNSD) Availability</t>
   </si>
   <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>CCH shelf share in SSD</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH shelf share in SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 21 </t>
   </si>
   <si>
-    <t>CCH shelf share in Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
+    <t xml:space="preserve">CCH shelf share in Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 23 </t>
   </si>
   <si>
-    <t>CCH shelf share in Juice</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
+    <t xml:space="preserve">CCH shelf share in Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 24  </t>
   </si>
   <si>
-    <t>CCH shelf share in Tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
+    <t xml:space="preserve">CCH shelf share in Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 25  </t>
   </si>
   <si>
-    <t>CCH shelf share in Energy</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>STANDARD 27</t>
-  </si>
-  <si>
-    <t>Number of CCH displays points of interaction</t>
-  </si>
-  <si>
-    <t>SSD Display 1st,
+    <t xml:space="preserve">CCH shelf share in Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH displays points of interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d,
 NCB-Mixability Display</t>
   </si>
   <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Number of CCH cooler doors and-or equivalent in Customer coolers</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>CCH coolers quality</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position,
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH cooler doors and-or equivalent in Customer coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position,
 Cooler: Max 15,
 Cooler: Merch Priorty STD,
 Cooler: w/o other products</t>
   </si>
   <si>
-    <t>SSD Display 1st,
+    <t xml:space="preserve">SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d</t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>SSD Display 1st,
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st,
 SSD Display 2d,
 Juice Display 2d,
 NCB Display,
@@ -191,7 +186,7 @@
 SSD Display 4th</t>
   </si>
   <si>
-    <t>SSD Display 1st,
+    <t xml:space="preserve">SSD Display 1st,
 Juice Display 1st,
 SSD Display 2d,
 NCB Display,
@@ -200,93 +195,100 @@
 Mixability Display</t>
   </si>
   <si>
-    <t>Juice Availability,
+    <t xml:space="preserve">Juice (JNSD) Availability,
 Energy Availability,
 Water Availability</t>
   </si>
   <si>
-    <t>STANDARD 16</t>
-  </si>
-  <si>
-    <t>CCH products present in Customers menu</t>
-  </si>
-  <si>
-    <t>Menu Activation</t>
-  </si>
-  <si>
-    <t>STANDARD 17</t>
-  </si>
-  <si>
-    <t>Number of CCH activation points in NARTD</t>
-  </si>
-  <si>
-    <t>Impulse Activation,
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH products present in Customers menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH activation points in NARTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation,
 Destination Activation</t>
   </si>
   <si>
-    <t>Water Availability,
-Energy Availability,
-Tea Availability,
-Juice Availability</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>Impulse Activation</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position,
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position,
 Cooler: w/o other products,
 Cooler: Max 15</t>
   </si>
   <si>
-    <t>Juice Availability,
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice (JNSD) Availability,
 Energy Availability,
 Water Availability,
 Tea Availability</t>
   </si>
   <si>
-    <t>Zone Activation Impulse/Cash,
+    <t xml:space="preserve">Zone Activation Impulse/Cash,
 Combo</t>
   </si>
   <si>
-    <t>Juice Availability,
+    <t xml:space="preserve">Juice (JNSD) Availability,
 Water Availability,
 Tea Availability</t>
   </si>
   <si>
-    <t>Activation bufet line,
+    <t xml:space="preserve">Activation bufet line,
 Combo</t>
   </si>
   <si>
-    <t>SSD Display,
+    <t xml:space="preserve">SSD Display,
 Juice Display</t>
   </si>
   <si>
-    <t>JNSD Displays</t>
-  </si>
-  <si>
-    <t>Juice Display</t>
-  </si>
-  <si>
-    <t>Menu activation</t>
+    <t xml:space="preserve">Juice Display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,14 +298,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,73 +320,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -429,7 +474,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -443,341 +488,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -794,14 +531,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -811,14 +548,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -828,14 +565,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -845,14 +582,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -862,14 +599,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -879,14 +616,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -896,14 +633,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -913,14 +650,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -930,14 +667,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -947,14 +684,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -965,9 +702,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -975,24 +713,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,14 +750,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1026,31 +767,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1060,14 +801,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1077,27 +818,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1105,24 +847,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1139,14 +884,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1156,31 +901,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1190,14 +935,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1207,27 +952,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.111111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1235,24 +981,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1269,14 +1018,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1286,14 +1035,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1303,14 +1052,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1320,14 +1069,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1337,14 +1086,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1355,9 +1104,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1365,24 +1115,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1399,14 +1152,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1416,14 +1169,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1433,31 +1186,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1467,14 +1220,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1485,9 +1238,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1495,24 +1249,27 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1529,14 +1286,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1546,14 +1303,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1563,31 +1320,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1597,14 +1354,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1615,9 +1372,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1625,24 +1383,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1659,14 +1420,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1676,14 +1437,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1693,14 +1454,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1710,14 +1471,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1727,14 +1488,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1744,14 +1505,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1761,14 +1522,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1778,14 +1539,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1795,14 +1556,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1812,14 +1573,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>1.123596</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1830,9 +1591,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1840,24 +1602,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1874,15 +1639,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C2" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1891,15 +1656,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C3" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1908,15 +1673,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C4" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1925,15 +1690,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C5" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1942,15 +1707,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C6" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1959,15 +1724,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C7" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1976,15 +1741,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C8" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1993,15 +1758,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C9" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2010,15 +1775,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C10" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -2028,9 +1793,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2038,24 +1804,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2072,15 +1841,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C2" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -2089,15 +1858,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C3" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2106,15 +1875,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C4" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -2123,15 +1892,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C5" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -2140,15 +1909,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C6" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -2157,15 +1926,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C7" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -2174,15 +1943,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C8" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -2191,15 +1960,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C9" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2208,15 +1977,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C10" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -2226,9 +1995,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2236,24 +2006,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2270,15 +2043,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C2" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -2287,15 +2060,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C3" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -2304,15 +2077,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C4" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -2321,15 +2094,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C5" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -2338,15 +2111,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C6" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -2355,15 +2128,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C7" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -2372,15 +2145,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C8" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -2389,15 +2162,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C9" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2406,15 +2179,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.1976047999999999</v>
+      <c r="C10" s="2" t="n">
+        <v>1.1976048</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -2424,9 +2197,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2434,24 +2208,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2468,14 +2245,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.200048</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2485,31 +2262,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.200048</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.200048</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2519,14 +2296,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.200048</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2537,9 +2314,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2547,24 +2325,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECCAC62-317B-4118-BAAF-F7AB0A6489AD}">
-  <dimension ref="A1:AMK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.7265625" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2581,14 +2362,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2598,65 +2379,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2666,27 +2447,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2694,24 +2476,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2728,14 +2513,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2745,65 +2530,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2813,27 +2598,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>1.38889</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2841,24 +2627,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1"/>
-    <col min="2" max="2" width="69.54296875" style="1"/>
-    <col min="3" max="3" width="10.08984375" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2"/>
-    <col min="5" max="5" width="38.26953125" style="1"/>
-    <col min="6" max="1025" width="8.54296875" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2875,14 +2664,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2892,31 +2681,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2926,14 +2715,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2943,14 +2732,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2960,14 +2749,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2977,14 +2766,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2994,27 +2783,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>1.176471</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
